--- a/Agile/Burndown.xlsx
+++ b/Agile/Burndown.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Troy Fulton\315-P3-Group17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Troy Fulton\315-P3-Group17\Agile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A0B3B4BA-8A2D-4B2B-942E-85237B859BAF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF00892-7DB5-4FF3-8C06-5EE423A20CF1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Burndown" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
   <si>
     <t>ID</t>
   </si>
@@ -227,12 +234,6 @@
     <t>19, 21, 22, 25</t>
   </si>
   <si>
-    <t>17, 24, 27</t>
-  </si>
-  <si>
-    <t>18, 20, 28</t>
-  </si>
-  <si>
     <t>23, 26, 29, 30</t>
   </si>
   <si>
@@ -240,12 +241,18 @@
   </si>
   <si>
     <t>33, 35</t>
+  </si>
+  <si>
+    <t>18, 20, 28, 17, 24, 27</t>
+  </si>
+  <si>
+    <t>27, 20, 17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -905,10 +912,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Burndown!$A$2:$A$15</c:f>
+              <c:f>Burndown!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43388</c:v>
                 </c:pt>
@@ -928,27 +935,24 @@
                   <c:v>43396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43401</c:v>
+                  <c:v>43402</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43402</c:v>
+                  <c:v>43403</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43403</c:v>
+                  <c:v>43404</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43404</c:v>
+                  <c:v>43405</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43405</c:v>
+                  <c:v>43407</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43407</c:v>
+                  <c:v>43408</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43408</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>43409</c:v>
                 </c:pt>
               </c:numCache>
@@ -956,10 +960,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Burndown!$J$2:$J$15</c:f>
+              <c:f>Burndown!$J$2:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>36</c:v>
                 </c:pt>
@@ -979,27 +983,24 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1041,10 +1042,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Burndown!$A$2:$A$15</c:f>
+              <c:f>Burndown!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43388</c:v>
                 </c:pt>
@@ -1064,27 +1065,24 @@
                   <c:v>43396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43401</c:v>
+                  <c:v>43402</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43402</c:v>
+                  <c:v>43403</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43403</c:v>
+                  <c:v>43404</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43404</c:v>
+                  <c:v>43405</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43405</c:v>
+                  <c:v>43407</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43407</c:v>
+                  <c:v>43408</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43408</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>43409</c:v>
                 </c:pt>
               </c:numCache>
@@ -1092,10 +1090,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Burndown!$K$2:$K$15</c:f>
+              <c:f>Burndown!$K$2:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>36</c:v>
                 </c:pt>
@@ -1115,28 +1113,25 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1983,13 +1978,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1127760</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2314,10 +2309,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -2888,11 +2883,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2965,11 +2960,11 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <f>$D$18-G2</f>
+        <f t="shared" ref="J2:K7" si="0">$D$17-G2</f>
         <v>36</v>
       </c>
       <c r="K2">
-        <f>$D$18-H2</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
@@ -3001,11 +2996,11 @@
         <v>3</v>
       </c>
       <c r="J3">
-        <f>$D$18-G3</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="K3">
-        <f>$D$18-H3</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
@@ -3029,19 +3024,19 @@
         <v>53</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G7" si="0">LEN(E4)-LEN(SUBSTITUTE(E4,",",""))+1 + G3</f>
+        <f t="shared" ref="G4:G7" si="1">LEN(E4)-LEN(SUBSTITUTE(E4,",",""))+1 + G3</f>
         <v>5</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H15" si="1">IF(ISBLANK(F4), 0, (LEN(F4)-LEN(SUBSTITUTE(F4,",",""))+1)) + H3</f>
+        <f t="shared" ref="H4:H14" si="2">IF(ISBLANK(F4), 0, (LEN(F4)-LEN(SUBSTITUTE(F4,",",""))+1)) + H3</f>
         <v>5</v>
       </c>
       <c r="J4">
-        <f>$D$18-G4</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="K4">
-        <f>$D$18-H4</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
@@ -3065,19 +3060,19 @@
         <v>6</v>
       </c>
       <c r="G5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J5">
-        <f>$D$18-G5</f>
         <v>30</v>
       </c>
       <c r="K5">
-        <f>$D$18-H5</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
@@ -3101,19 +3096,19 @@
         <v>61</v>
       </c>
       <c r="G6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <f>$D$18-G6</f>
         <v>26</v>
       </c>
       <c r="K6">
-        <f>$D$18-H6</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
@@ -3137,61 +3132,64 @@
         <v>63</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="H7">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="J7">
-        <f>$D$18-G7</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="K7">
-        <f>$D$18-H7</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43401</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>52</v>
+      <c r="A8" s="6">
+        <v>43402</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.17361111111111113</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G15" si="2">LEN(E8)-LEN(SUBSTITUTE(E8,",",""))+1 + G7</f>
+        <f t="shared" ref="G8:G14" si="3">LEN(E8)-LEN(SUBSTITUTE(E8,",",""))+1 + G7</f>
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H14" si="4">IF(ISBLANK(F8), 0, (LEN(F8)-LEN(SUBSTITUTE(F8,",",""))+1)) + H7</f>
         <v>19</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
+      <c r="J8">
+        <f t="shared" ref="J8:J14" si="5">$D$17-G8</f>
         <v>16</v>
       </c>
-      <c r="J8">
-        <f t="shared" ref="J8:J15" si="3">$D$18-G8</f>
+      <c r="K8">
+        <f t="shared" ref="K8:K14" si="6">$D$17-H8</f>
         <v>19</v>
       </c>
-      <c r="K8">
-        <f t="shared" ref="K8:K15" si="4">$D$18-H8</f>
-        <v>22</v>
-      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>43402</v>
+      <c r="A9" s="1">
+        <v>43403</v>
       </c>
       <c r="B9" s="2">
-        <v>0.17361111111111113</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -3200,64 +3198,64 @@
         <v>7</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <f t="shared" si="3"/>
+        <v>26</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="J9">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="K9">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43403</v>
+      <c r="A10" s="5">
+        <v>43404</v>
       </c>
       <c r="B10" s="2">
-        <v>0.52430555555555558</v>
+        <v>0.17361111111111113</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="J10">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="K10">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>43404</v>
+      <c r="A11" s="1">
+        <v>43405</v>
       </c>
       <c r="B11" s="2">
-        <v>0.17361111111111113</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -3266,31 +3264,31 @@
         <v>7</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="J11">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="K11">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43405</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.52430555555555558</v>
+      <c r="A12" s="5">
+        <v>43407</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -3299,64 +3297,64 @@
         <v>7</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
-        <v>34</v>
+        <f t="shared" si="3"/>
+        <v>36</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="J12">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="K12">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>43407</v>
+      <c r="A13" s="1">
+        <v>43408</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>72</v>
+      <c r="E13" s="4">
+        <v>37</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
-        <v>36</v>
+        <f t="shared" si="3"/>
+        <v>37</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="J13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="K13">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43408</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>52</v>
+      <c r="A14" s="5">
+        <v>43409</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.17361111111111113</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3365,63 +3363,30 @@
         <v>7</v>
       </c>
       <c r="E14" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
-        <v>37</v>
+        <f t="shared" si="3"/>
+        <v>38</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="J14">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="K14">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>43409</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.17361111111111113</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="4">
-        <v>38</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
         <v>66</v>
       </c>
-      <c r="D18">
+      <c r="D17">
         <v>38</v>
       </c>
     </row>

--- a/Agile/Burndown.xlsx
+++ b/Agile/Burndown.xlsx
@@ -1,34 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Troy Fulton\315-P3-Group17\Agile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Troy Fulton\315-P3-Group17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF00892-7DB5-4FF3-8C06-5EE423A20CF1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A0B3B4BA-8A2D-4B2B-942E-85237B859BAF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Burndown" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="73">
   <si>
     <t>ID</t>
   </si>
@@ -234,6 +227,12 @@
     <t>19, 21, 22, 25</t>
   </si>
   <si>
+    <t>17, 24, 27</t>
+  </si>
+  <si>
+    <t>18, 20, 28</t>
+  </si>
+  <si>
     <t>23, 26, 29, 30</t>
   </si>
   <si>
@@ -241,18 +240,12 @@
   </si>
   <si>
     <t>33, 35</t>
-  </si>
-  <si>
-    <t>18, 20, 28, 17, 24, 27</t>
-  </si>
-  <si>
-    <t>27, 20, 17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -912,10 +905,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Burndown!$A$2:$A$14</c:f>
+              <c:f>Burndown!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>43388</c:v>
                 </c:pt>
@@ -935,24 +928,27 @@
                   <c:v>43396</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>43401</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>43402</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43403</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43404</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43405</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43407</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43408</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43409</c:v>
                 </c:pt>
               </c:numCache>
@@ -960,10 +956,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Burndown!$J$2:$J$14</c:f>
+              <c:f>Burndown!$J$2:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>36</c:v>
                 </c:pt>
@@ -983,24 +979,27 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1042,10 +1041,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Burndown!$A$2:$A$14</c:f>
+              <c:f>Burndown!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>43388</c:v>
                 </c:pt>
@@ -1065,24 +1064,27 @@
                   <c:v>43396</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>43401</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>43402</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43403</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43404</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43405</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43407</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43408</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43409</c:v>
                 </c:pt>
               </c:numCache>
@@ -1090,10 +1092,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Burndown!$K$2:$K$14</c:f>
+              <c:f>Burndown!$K$2:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>36</c:v>
                 </c:pt>
@@ -1113,25 +1115,28 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1978,13 +1983,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1127760</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2309,10 +2314,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -2883,11 +2888,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2960,11 +2965,11 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:K7" si="0">$D$17-G2</f>
+        <f>$D$18-G2</f>
         <v>36</v>
       </c>
       <c r="K2">
-        <f t="shared" si="0"/>
+        <f>$D$18-H2</f>
         <v>36</v>
       </c>
     </row>
@@ -2996,11 +3001,11 @@
         <v>3</v>
       </c>
       <c r="J3">
-        <f t="shared" si="0"/>
+        <f>$D$18-G3</f>
         <v>35</v>
       </c>
       <c r="K3">
-        <f t="shared" si="0"/>
+        <f>$D$18-H3</f>
         <v>35</v>
       </c>
     </row>
@@ -3024,19 +3029,19 @@
         <v>53</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G7" si="1">LEN(E4)-LEN(SUBSTITUTE(E4,",",""))+1 + G3</f>
+        <f t="shared" ref="G4:G7" si="0">LEN(E4)-LEN(SUBSTITUTE(E4,",",""))+1 + G3</f>
         <v>5</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H14" si="2">IF(ISBLANK(F4), 0, (LEN(F4)-LEN(SUBSTITUTE(F4,",",""))+1)) + H3</f>
+        <f t="shared" ref="H4:H15" si="1">IF(ISBLANK(F4), 0, (LEN(F4)-LEN(SUBSTITUTE(F4,",",""))+1)) + H3</f>
         <v>5</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f>$D$18-G4</f>
         <v>33</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f>$D$18-H4</f>
         <v>33</v>
       </c>
     </row>
@@ -3060,19 +3065,19 @@
         <v>6</v>
       </c>
       <c r="G5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
+        <f>$D$18-G5</f>
         <v>30</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f>$D$18-H5</f>
         <v>32</v>
       </c>
     </row>
@@ -3096,19 +3101,19 @@
         <v>61</v>
       </c>
       <c r="G6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f>$D$18-G6</f>
         <v>26</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f>$D$18-H6</f>
         <v>28</v>
       </c>
     </row>
@@ -3132,64 +3137,61 @@
         <v>63</v>
       </c>
       <c r="G7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f>$D$18-G7</f>
         <v>22</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
+        <f>$D$18-H7</f>
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>43402</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.17361111111111113</v>
+      <c r="A8" s="1">
+        <v>43401</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G14" si="3">LEN(E8)-LEN(SUBSTITUTE(E8,",",""))+1 + G7</f>
+        <f t="shared" ref="G8:G15" si="2">LEN(E8)-LEN(SUBSTITUTE(E8,",",""))+1 + G7</f>
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:J15" si="3">$D$18-G8</f>
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K15" si="4">$D$18-H8</f>
         <v>22</v>
       </c>
-      <c r="H8">
-        <f t="shared" ref="H8:H14" si="4">IF(ISBLANK(F8), 0, (LEN(F8)-LEN(SUBSTITUTE(F8,",",""))+1)) + H7</f>
-        <v>19</v>
-      </c>
-      <c r="J8">
-        <f t="shared" ref="J8:J14" si="5">$D$17-G8</f>
-        <v>16</v>
-      </c>
-      <c r="K8">
-        <f t="shared" ref="K8:K14" si="6">$D$17-H8</f>
-        <v>19</v>
-      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43403</v>
+      <c r="A9" s="6">
+        <v>43402</v>
       </c>
       <c r="B9" s="2">
-        <v>0.52430555555555558</v>
+        <v>0.17361111111111113</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -3198,64 +3200,64 @@
         <v>7</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G9">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>43404</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.17361111111111113</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43405</v>
+      <c r="A11" s="5">
+        <v>43404</v>
       </c>
       <c r="B11" s="2">
-        <v>0.52430555555555558</v>
+        <v>0.17361111111111113</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -3264,31 +3266,31 @@
         <v>7</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>43407</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>52</v>
+      <c r="A12" s="1">
+        <v>43405</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.52430555555555558</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -3297,64 +3299,64 @@
         <v>7</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43408</v>
+      <c r="A13" s="5">
+        <v>43407</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="4">
-        <v>37</v>
+      <c r="E13" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="G13">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>43409</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.17361111111111113</v>
+      <c r="A14" s="1">
+        <v>43408</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3363,30 +3365,63 @@
         <v>7</v>
       </c>
       <c r="E14" s="4">
+        <v>37</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>43409</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.17361111111111113</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="4">
         <v>38</v>
       </c>
-      <c r="G14">
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
         <v>66</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>38</v>
       </c>
     </row>

--- a/Agile/Burndown.xlsx
+++ b/Agile/Burndown.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Troy Fulton\315-P3-Group17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Troy Fulton\315-P3-Group17\Agile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A0B3B4BA-8A2D-4B2B-942E-85237B859BAF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EB99BF-2B72-4F21-BE20-3A6D15A49BA8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Burndown" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -224,28 +231,34 @@
     <t>Total Tasks:</t>
   </si>
   <si>
-    <t>19, 21, 22, 25</t>
-  </si>
-  <si>
-    <t>17, 24, 27</t>
-  </si>
-  <si>
-    <t>18, 20, 28</t>
-  </si>
-  <si>
-    <t>23, 26, 29, 30</t>
-  </si>
-  <si>
     <t>31, 32, 34, 36</t>
   </si>
   <si>
     <t>33, 35</t>
+  </si>
+  <si>
+    <t>27, 20</t>
+  </si>
+  <si>
+    <t>28, 21</t>
+  </si>
+  <si>
+    <t>22, 23, 24</t>
+  </si>
+  <si>
+    <t>19, 21, 22, 25, 24</t>
+  </si>
+  <si>
+    <t>23, 26, 29, 30, 27</t>
+  </si>
+  <si>
+    <t>18, 20, 28, 17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -905,10 +918,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Burndown!$A$2:$A$15</c:f>
+              <c:f>Burndown!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43388</c:v>
                 </c:pt>
@@ -928,27 +941,24 @@
                   <c:v>43396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43401</c:v>
+                  <c:v>43402</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43402</c:v>
+                  <c:v>43403</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43403</c:v>
+                  <c:v>43404</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43404</c:v>
+                  <c:v>43405</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43405</c:v>
+                  <c:v>43407</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43407</c:v>
+                  <c:v>43408</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43408</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>43409</c:v>
                 </c:pt>
               </c:numCache>
@@ -956,10 +966,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Burndown!$J$2:$J$15</c:f>
+              <c:f>Burndown!$J$2:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>36</c:v>
                 </c:pt>
@@ -979,27 +989,24 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1041,10 +1048,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Burndown!$A$2:$A$15</c:f>
+              <c:f>Burndown!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43388</c:v>
                 </c:pt>
@@ -1064,27 +1071,24 @@
                   <c:v>43396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43401</c:v>
+                  <c:v>43402</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43402</c:v>
+                  <c:v>43403</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43403</c:v>
+                  <c:v>43404</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43404</c:v>
+                  <c:v>43405</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43405</c:v>
+                  <c:v>43407</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43407</c:v>
+                  <c:v>43408</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43408</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>43409</c:v>
                 </c:pt>
               </c:numCache>
@@ -1092,10 +1096,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Burndown!$K$2:$K$15</c:f>
+              <c:f>Burndown!$K$2:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>36</c:v>
                 </c:pt>
@@ -1115,28 +1119,25 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1983,13 +1984,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1127760</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2314,7 +2315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -2888,11 +2889,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2965,11 +2966,11 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <f>$D$18-G2</f>
+        <f t="shared" ref="J2:K7" si="0">$D$17-G2</f>
         <v>36</v>
       </c>
       <c r="K2">
-        <f>$D$18-H2</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
@@ -3001,11 +3002,11 @@
         <v>3</v>
       </c>
       <c r="J3">
-        <f>$D$18-G3</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="K3">
-        <f>$D$18-H3</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
@@ -3029,19 +3030,19 @@
         <v>53</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G7" si="0">LEN(E4)-LEN(SUBSTITUTE(E4,",",""))+1 + G3</f>
+        <f t="shared" ref="G4:G7" si="1">LEN(E4)-LEN(SUBSTITUTE(E4,",",""))+1 + G3</f>
         <v>5</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H15" si="1">IF(ISBLANK(F4), 0, (LEN(F4)-LEN(SUBSTITUTE(F4,",",""))+1)) + H3</f>
+        <f t="shared" ref="H4:H14" si="2">IF(ISBLANK(F4), 0, (LEN(F4)-LEN(SUBSTITUTE(F4,",",""))+1)) + H3</f>
         <v>5</v>
       </c>
       <c r="J4">
-        <f>$D$18-G4</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="K4">
-        <f>$D$18-H4</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
@@ -3065,19 +3066,19 @@
         <v>6</v>
       </c>
       <c r="G5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J5">
-        <f>$D$18-G5</f>
         <v>30</v>
       </c>
       <c r="K5">
-        <f>$D$18-H5</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
@@ -3101,19 +3102,19 @@
         <v>61</v>
       </c>
       <c r="G6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <f>$D$18-G6</f>
         <v>26</v>
       </c>
       <c r="K6">
-        <f>$D$18-H6</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
@@ -3137,61 +3138,64 @@
         <v>63</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="H7">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="J7">
-        <f>$D$18-G7</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="K7">
-        <f>$D$18-H7</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43401</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>52</v>
+      <c r="A8" s="6">
+        <v>43402</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.17361111111111113</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G15" si="2">LEN(E8)-LEN(SUBSTITUTE(E8,",",""))+1 + G7</f>
-        <v>19</v>
+        <f t="shared" ref="G8:G14" si="3">LEN(E8)-LEN(SUBSTITUTE(E8,",",""))+1 + G7</f>
+        <v>20</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" ref="H8:H14" si="4">IF(ISBLANK(F8), 0, (LEN(F8)-LEN(SUBSTITUTE(F8,",",""))+1)) + H7</f>
+        <v>18</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:J15" si="3">$D$18-G8</f>
-        <v>19</v>
+        <f t="shared" ref="J8:J14" si="5">$D$17-G8</f>
+        <v>18</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K8:K15" si="4">$D$18-H8</f>
-        <v>22</v>
+        <f t="shared" ref="K8:K14" si="6">$D$17-H8</f>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>43402</v>
+      <c r="A9" s="1">
+        <v>43403</v>
       </c>
       <c r="B9" s="2">
-        <v>0.17361111111111113</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -3200,64 +3204,70 @@
         <v>7</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="J9">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="K9">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43403</v>
+      <c r="A10" s="5">
+        <v>43404</v>
       </c>
       <c r="B10" s="2">
-        <v>0.52430555555555558</v>
+        <v>0.17361111111111113</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>23</v>
       </c>
       <c r="J10">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="K10">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>43404</v>
+      <c r="A11" s="1">
+        <v>43405</v>
       </c>
       <c r="B11" s="2">
-        <v>0.17361111111111113</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -3266,31 +3276,31 @@
         <v>7</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>23</v>
       </c>
       <c r="J11">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="K11">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43405</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.52430555555555558</v>
+      <c r="A12" s="5">
+        <v>43407</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -3299,64 +3309,64 @@
         <v>7</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
-        <v>34</v>
+        <f t="shared" si="3"/>
+        <v>36</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>23</v>
       </c>
       <c r="J12">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="K12">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>43407</v>
+      <c r="A13" s="1">
+        <v>43408</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>72</v>
+      <c r="E13" s="4">
+        <v>37</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
-        <v>36</v>
+        <f t="shared" si="3"/>
+        <v>37</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>23</v>
       </c>
       <c r="J13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="K13">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43408</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>52</v>
+      <c r="A14" s="5">
+        <v>43409</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.17361111111111113</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3365,63 +3375,30 @@
         <v>7</v>
       </c>
       <c r="E14" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
-        <v>37</v>
+        <f t="shared" si="3"/>
+        <v>38</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>23</v>
       </c>
       <c r="J14">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="K14">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>43409</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.17361111111111113</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="4">
-        <v>38</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
         <v>66</v>
       </c>
-      <c r="D18">
+      <c r="D17">
         <v>38</v>
       </c>
     </row>

--- a/Agile/Burndown.xlsx
+++ b/Agile/Burndown.xlsx
@@ -1,34 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Troy Fulton\315-P3-Group17\Agile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apers_000\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EB99BF-2B72-4F21-BE20-3A6D15A49BA8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E75A7D78-B4F3-4DC4-B0C0-16059293C944}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Burndown" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -253,6 +246,12 @@
   </si>
   <si>
     <t>18, 20, 28, 17</t>
+  </si>
+  <si>
+    <t>17, 18, 19</t>
+  </si>
+  <si>
+    <t>25, 26, 30, 31, 32, 33, 35, 34, 36, 37</t>
   </si>
 </sst>
 </file>
@@ -1128,16 +1127,16 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2322,13 +2321,13 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="95.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="95.1796875" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2342,7 +2341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2357,7 +2356,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2372,7 +2371,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2387,7 +2386,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2402,7 +2401,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2417,7 +2416,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2432,7 +2431,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2447,7 +2446,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2462,7 +2461,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2477,7 +2476,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2491,7 +2490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2505,7 +2504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2519,7 +2518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2533,7 +2532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2547,7 +2546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2561,7 +2560,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2575,7 +2574,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2589,7 +2588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2603,7 +2602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2617,7 +2616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2631,7 +2630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2645,7 +2644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2659,7 +2658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2673,7 +2672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2687,7 +2686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2701,7 +2700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2715,7 +2714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2729,7 +2728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2743,7 +2742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2757,7 +2756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2771,7 +2770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2785,7 +2784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2799,7 +2798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2813,7 +2812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2827,7 +2826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2841,7 +2840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2855,7 +2854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2869,7 +2868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2893,20 +2892,20 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="27.109375" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" customWidth="1"/>
+    <col min="5" max="5" width="24.36328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="27.08984375" customWidth="1"/>
+    <col min="8" max="8" width="26.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -2938,7 +2937,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43388</v>
       </c>
@@ -2974,7 +2973,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43390</v>
       </c>
@@ -3010,7 +3009,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>43391</v>
       </c>
@@ -3034,7 +3033,7 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H14" si="2">IF(ISBLANK(F4), 0, (LEN(F4)-LEN(SUBSTITUTE(F4,",",""))+1)) + H3</f>
+        <f t="shared" ref="H4:H7" si="2">IF(ISBLANK(F4), 0, (LEN(F4)-LEN(SUBSTITUTE(F4,",",""))+1)) + H3</f>
         <v>5</v>
       </c>
       <c r="J4">
@@ -3046,7 +3045,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43394</v>
       </c>
@@ -3082,7 +3081,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43395</v>
       </c>
@@ -3118,7 +3117,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>43396</v>
       </c>
@@ -3154,7 +3153,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>43402</v>
       </c>
@@ -3190,7 +3189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43403</v>
       </c>
@@ -3226,7 +3225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>43404</v>
       </c>
@@ -3262,7 +3261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43405</v>
       </c>
@@ -3277,6 +3276,9 @@
       </c>
       <c r="E11" s="4" t="s">
         <v>67</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
@@ -3284,7 +3286,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
@@ -3292,10 +3294,10 @@
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>43407</v>
       </c>
@@ -3310,6 +3312,9 @@
       </c>
       <c r="E12" s="4" t="s">
         <v>68</v>
+      </c>
+      <c r="F12" s="4">
+        <v>29</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
@@ -3317,7 +3322,7 @@
       </c>
       <c r="H12">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
@@ -3325,10 +3330,10 @@
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43408</v>
       </c>
@@ -3343,6 +3348,9 @@
       </c>
       <c r="E13" s="4">
         <v>37</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
@@ -3350,7 +3358,7 @@
       </c>
       <c r="H13">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
@@ -3358,10 +3366,10 @@
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>43409</v>
       </c>
@@ -3375,6 +3383,9 @@
         <v>7</v>
       </c>
       <c r="E14" s="4">
+        <v>38</v>
+      </c>
+      <c r="F14" s="4">
         <v>38</v>
       </c>
       <c r="G14">
@@ -3383,7 +3394,7 @@
       </c>
       <c r="H14">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
@@ -3391,10 +3402,10 @@
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>66</v>
       </c>

--- a/Agile/Burndown.xlsx
+++ b/Agile/Burndown.xlsx
@@ -1,34 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Troy Fulton\315-P3-Group17\Agile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marshall\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EB99BF-2B72-4F21-BE20-3A6D15A49BA8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DDF8CC6D-7897-40CE-B3B7-94086F2F90FC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Burndown" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -253,6 +246,15 @@
   </si>
   <si>
     <t>18, 20, 28, 17</t>
+  </si>
+  <si>
+    <t>17, 18</t>
+  </si>
+  <si>
+    <t>19, 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26, 29, 30, 31, 32, 33, 34, 35, 36, 37 </t>
   </si>
 </sst>
 </file>
@@ -1128,16 +1130,16 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2322,13 +2324,13 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="95.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="95.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2342,7 +2344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2357,7 +2359,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2372,7 +2374,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2387,7 +2389,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2402,7 +2404,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2417,7 +2419,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2432,7 +2434,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2447,7 +2449,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2462,7 +2464,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2477,7 +2479,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2491,7 +2493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2505,7 +2507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2519,7 +2521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2533,7 +2535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2547,7 +2549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2561,7 +2563,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2575,7 +2577,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2589,7 +2591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2603,7 +2605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2617,7 +2619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2631,7 +2633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2645,7 +2647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2659,7 +2661,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2673,7 +2675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2687,7 +2689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2701,7 +2703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2715,7 +2717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2729,7 +2731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2743,7 +2745,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2757,7 +2759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2771,7 +2773,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2785,7 +2787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2799,7 +2801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2813,7 +2815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2827,7 +2829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2841,7 +2843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2855,7 +2857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2869,7 +2871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2893,20 +2895,20 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="27.109375" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -2938,7 +2940,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43388</v>
       </c>
@@ -2974,7 +2976,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43390</v>
       </c>
@@ -3010,7 +3012,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>43391</v>
       </c>
@@ -3034,7 +3036,7 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H14" si="2">IF(ISBLANK(F4), 0, (LEN(F4)-LEN(SUBSTITUTE(F4,",",""))+1)) + H3</f>
+        <f t="shared" ref="H4:H7" si="2">IF(ISBLANK(F4), 0, (LEN(F4)-LEN(SUBSTITUTE(F4,",",""))+1)) + H3</f>
         <v>5</v>
       </c>
       <c r="J4">
@@ -3046,7 +3048,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43394</v>
       </c>
@@ -3082,7 +3084,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43395</v>
       </c>
@@ -3118,7 +3120,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>43396</v>
       </c>
@@ -3154,7 +3156,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43402</v>
       </c>
@@ -3190,7 +3192,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43403</v>
       </c>
@@ -3226,7 +3228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>43404</v>
       </c>
@@ -3262,7 +3264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43405</v>
       </c>
@@ -3277,6 +3279,9 @@
       </c>
       <c r="E11" s="4" t="s">
         <v>67</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
@@ -3284,7 +3289,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
@@ -3292,10 +3297,10 @@
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>43407</v>
       </c>
@@ -3310,6 +3315,9 @@
       </c>
       <c r="E12" s="4" t="s">
         <v>68</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
@@ -3317,7 +3325,7 @@
       </c>
       <c r="H12">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
@@ -3325,10 +3333,10 @@
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43408</v>
       </c>
@@ -3343,6 +3351,9 @@
       </c>
       <c r="E13" s="4">
         <v>37</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
@@ -3350,7 +3361,7 @@
       </c>
       <c r="H13">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
@@ -3358,10 +3369,10 @@
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>43409</v>
       </c>
@@ -3375,6 +3386,9 @@
         <v>7</v>
       </c>
       <c r="E14" s="4">
+        <v>38</v>
+      </c>
+      <c r="F14" s="4">
         <v>38</v>
       </c>
       <c r="G14">
@@ -3383,7 +3397,7 @@
       </c>
       <c r="H14">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
@@ -3391,10 +3405,10 @@
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>66</v>
       </c>
